--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3796232.976194859</v>
+        <v>3791930.814298393</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7432783.055504446</v>
+        <v>7432783.055504445</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>145.1986582043249</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>43.98786165864701</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.7788117555066</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>167.7555232211321</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>131.9388743763815</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16.40840697931751</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>32.35016756540386</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>349.229934453755</v>
+        <v>240.2688891353397</v>
       </c>
       <c r="E5" t="n">
-        <v>349.229934453755</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>37.06295147848657</v>
+        <v>146.0239967969024</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.229934453755</v>
+        <v>349.2299344537552</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>349.2299344537552</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>156.6259854882217</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419598</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>136.6494240275902</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>84.21162860410398</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>103.5178519679352</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2513897146553</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>195.1369849497847</v>
+        <v>233.8447291789213</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>39.45885325319734</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>31.94564439956854</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>185.6271053876765</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>40.62253010341785</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>160.2261899043208</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>105.989310737304</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>60.42721558712923</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>45.36631724422188</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569544</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>139.953744463993</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>21.44532649588036</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722602</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.9995457768025</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>74.41917683133092</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.73433514019987</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>11.76284745948157</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487943</v>
+        <v>388.82285422078</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487943</v>
+        <v>388.82285422078</v>
       </c>
       <c r="D2" t="n">
-        <v>414.0172523312944</v>
+        <v>388.82285422078</v>
       </c>
       <c r="E2" t="n">
-        <v>224.5974673148098</v>
+        <v>388.82285422078</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656064</v>
+        <v>344.3906707271972</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897901</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644752</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123823</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602026</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652789</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652789</v>
+        <v>578.2426392372647</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487943</v>
+        <v>388.82285422078</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487943</v>
+        <v>388.82285422078</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487943</v>
+        <v>388.82285422078</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487943</v>
+        <v>388.82285422078</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487943</v>
+        <v>388.82285422078</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487943</v>
+        <v>388.82285422078</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.8127551766207</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="C3" t="n">
-        <v>201.8127551766207</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="D3" t="n">
-        <v>201.8127551766207</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="E3" t="n">
-        <v>201.8127551766207</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8127551766207</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906982</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906982</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140238</v>
+        <v>338.7690911140242</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017056</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652789</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652789</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652789</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652789</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="V3" t="n">
-        <v>580.6523252095899</v>
+        <v>344.0797222513581</v>
       </c>
       <c r="W3" t="n">
-        <v>391.2325401931053</v>
+        <v>344.0797222513581</v>
       </c>
       <c r="X3" t="n">
-        <v>391.2325401931053</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="Y3" t="n">
-        <v>201.8127551766207</v>
+        <v>210.8081319721848</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330558</v>
+        <v>178.466142935173</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330558</v>
+        <v>178.466142935173</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330558</v>
+        <v>178.466142935173</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330558</v>
+        <v>178.466142935173</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330558</v>
+        <v>31.57619543726267</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330558</v>
+        <v>31.57619543726267</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>43.17590452428081</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394158</v>
+        <v>100.3335179349382</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340723</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287288</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652789</v>
+        <v>634.3723839608016</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652789</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="R4" t="n">
-        <v>615.9383389575107</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="S4" t="n">
-        <v>615.9383389575107</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="T4" t="n">
-        <v>615.9383389575107</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="U4" t="n">
-        <v>426.5185539410261</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="V4" t="n">
-        <v>393.8416170062748</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="W4" t="n">
-        <v>393.8416170062748</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="X4" t="n">
-        <v>204.4218319897901</v>
+        <v>367.8859279516577</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330558</v>
+        <v>178.466142935173</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>753.0637996956971</v>
+        <v>290.2446282086561</v>
       </c>
       <c r="C5" t="n">
-        <v>753.0637996956971</v>
+        <v>290.2446282086561</v>
       </c>
       <c r="D5" t="n">
-        <v>400.3062901464494</v>
+        <v>47.54878059720187</v>
       </c>
       <c r="E5" t="n">
-        <v>47.54878059720185</v>
+        <v>47.54878059720187</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799839</v>
+        <v>40.6032798479984</v>
       </c>
       <c r="G5" t="n">
-        <v>27.9383947563004</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="H5" t="n">
-        <v>27.9383947563004</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="I5" t="n">
-        <v>27.9383947563004</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="J5" t="n">
         <v>80.99020340874591</v>
@@ -4576,43 +4576,43 @@
         <v>409.727324245866</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973822</v>
+        <v>662.2525653973823</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365745</v>
+        <v>923.4777373365748</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477532</v>
+        <v>1156.809998477533</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169733</v>
+        <v>1321.452684169734</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.91973781502</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.91973781502</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="S5" t="n">
-        <v>1359.482413089276</v>
+        <v>1249.420751151483</v>
       </c>
       <c r="T5" t="n">
-        <v>1359.482413089276</v>
+        <v>1249.420751151483</v>
       </c>
       <c r="U5" t="n">
-        <v>1105.821309244945</v>
+        <v>995.7596473071516</v>
       </c>
       <c r="V5" t="n">
-        <v>1105.821309244945</v>
+        <v>995.7596473071516</v>
       </c>
       <c r="W5" t="n">
-        <v>753.0637996956971</v>
+        <v>643.0021377579038</v>
       </c>
       <c r="X5" t="n">
-        <v>753.0637996956971</v>
+        <v>290.2446282086561</v>
       </c>
       <c r="Y5" t="n">
-        <v>753.0637996956971</v>
+        <v>290.2446282086561</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>686.6587730724409</v>
+        <v>333.710407734871</v>
       </c>
       <c r="C6" t="n">
-        <v>512.2057437913139</v>
+        <v>333.710407734871</v>
       </c>
       <c r="D6" t="n">
-        <v>363.2713341300627</v>
+        <v>333.710407734871</v>
       </c>
       <c r="E6" t="n">
-        <v>204.0338791246072</v>
+        <v>174.4729527294155</v>
       </c>
       <c r="F6" t="n">
-        <v>204.0338791246072</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="G6" t="n">
-        <v>66.79713308377109</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377109</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9383947563004</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="J6" t="n">
-        <v>165.5479665784354</v>
+        <v>40.71784159143067</v>
       </c>
       <c r="K6" t="n">
-        <v>265.5449014249416</v>
+        <v>140.7147764379369</v>
       </c>
       <c r="L6" t="n">
-        <v>446.3256618694537</v>
+        <v>397.7908260787603</v>
       </c>
       <c r="M6" t="n">
-        <v>676.6451506028652</v>
+        <v>743.528461187978</v>
       </c>
       <c r="N6" t="n">
-        <v>927.4691557817695</v>
+        <v>994.3524663668823</v>
       </c>
       <c r="O6" t="n">
-        <v>1134.704322874853</v>
+        <v>1201.587633459966</v>
       </c>
       <c r="P6" t="n">
         <v>1348.579058983949</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.91973781502</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="R6" t="n">
-        <v>1396.91973781502</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="S6" t="n">
-        <v>1396.91973781502</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="T6" t="n">
-        <v>1200.755331538032</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="U6" t="n">
-        <v>1200.755331538032</v>
+        <v>1396.919737815021</v>
       </c>
       <c r="V6" t="n">
-        <v>1200.755331538032</v>
+        <v>1161.767629583278</v>
       </c>
       <c r="W6" t="n">
-        <v>1200.755331538032</v>
+        <v>907.5302728550766</v>
       </c>
       <c r="X6" t="n">
-        <v>992.9038313324991</v>
+        <v>699.6787726495438</v>
       </c>
       <c r="Y6" t="n">
-        <v>854.874110092509</v>
+        <v>491.9184738845899</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>263.1172852838927</v>
+        <v>746.3577450131447</v>
       </c>
       <c r="C7" t="n">
-        <v>178.0550341686361</v>
+        <v>577.4215620852378</v>
       </c>
       <c r="D7" t="n">
-        <v>27.9383947563004</v>
+        <v>427.3049226729021</v>
       </c>
       <c r="E7" t="n">
-        <v>27.9383947563004</v>
+        <v>279.391829090509</v>
       </c>
       <c r="F7" t="n">
-        <v>27.9383947563004</v>
+        <v>132.5018815925986</v>
       </c>
       <c r="G7" t="n">
-        <v>27.9383947563004</v>
+        <v>132.5018815925986</v>
       </c>
       <c r="H7" t="n">
-        <v>27.9383947563004</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="I7" t="n">
-        <v>27.9383947563004</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="J7" t="n">
-        <v>27.9383947563004</v>
+        <v>27.93839475630042</v>
       </c>
       <c r="K7" t="n">
         <v>148.523310587469</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208638</v>
+        <v>358.3569215208639</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014272</v>
+        <v>589.9861665014273</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750244</v>
+        <v>821.5424021750246</v>
       </c>
       <c r="O7" t="n">
         <v>1019.405768767885</v>
@@ -4758,19 +4758,19 @@
         <v>1182.690698049271</v>
       </c>
       <c r="U7" t="n">
-        <v>893.5478801556799</v>
+        <v>1182.690698049271</v>
       </c>
       <c r="V7" t="n">
-        <v>893.5478801556799</v>
+        <v>928.0062098433845</v>
       </c>
       <c r="W7" t="n">
-        <v>893.5478801556799</v>
+        <v>928.0062098433845</v>
       </c>
       <c r="X7" t="n">
-        <v>665.5583292576625</v>
+        <v>928.0062098433845</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.7657501141324</v>
+        <v>928.0062098433845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.132293616578</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.132293616578</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D8" t="n">
-        <v>949.8665950098273</v>
+        <v>684.90618255198</v>
       </c>
       <c r="E8" t="n">
-        <v>564.078342411583</v>
+        <v>299.1179299537358</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057398</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4810,10 +4810,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656511</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2084.871465656511</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1694.732133680699</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>482.9033490193026</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>777.6069060507743</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341572</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.486495938517</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>196.9593607670919</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C10" t="n">
-        <v>196.9593607670919</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D10" t="n">
-        <v>196.9593607670919</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E10" t="n">
-        <v>196.9593607670919</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
         <v>157.1019332386097</v>
@@ -4959,10 +4959,10 @@
         <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1604.177792398166</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>1315.059454902003</v>
       </c>
       <c r="V10" t="n">
-        <v>896.0145465323095</v>
+        <v>1060.374966696116</v>
       </c>
       <c r="W10" t="n">
-        <v>606.597376495349</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="X10" t="n">
-        <v>378.6078255973316</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="Y10" t="n">
-        <v>378.6078255973316</v>
+        <v>770.9577966591559</v>
       </c>
     </row>
     <row r="11">
@@ -5023,67 +5023,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191922</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349506</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998425</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998425</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687974</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2009.560418833348</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1720.485192177545</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.485192177545</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.068022140585</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.078471242567</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990371</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5266,40 +5266,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111743</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075833</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191923</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349507</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349507</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989557</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.574735228844</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2526.197884723912</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.5579673960133</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681064</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,22 +5509,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3342.53722908186</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4516.727538815336</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4227.652312159534</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3972.967823953647</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3972.967823953647</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>378.6527890600109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>378.6527890600109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5992,16 +5992,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>835.5837926935558</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>666.6476097656489</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>516.5309703533131</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>368.61787677092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>221.7279292730097</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>221.7279292730097</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523796</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1089.917939501689</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>920.9817565737817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1720.348534373476</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1492.358983475458</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1271.566404331928</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,25 +7168,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1902.290194822295</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.605706616408</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.188536579448</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7396,25 +7396,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2113.492509992416</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1824.417283336614</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1569.732795130727</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.315625093766</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7654,13 +7654,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7672,25 +7672,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3194.624135499465</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>3025.687952571559</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>2875.571313159223</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>3388.154264430192</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>3376.272600329705</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,10 +8139,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.56275186471064</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>74.03418926528938</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457083</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>77.06594868314272</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>116.583986238188</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>67.55889958092118</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>60.35797727397625</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>255.8421700460943</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>31.77834493961174</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>245.5619442858263</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.60579027761648</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>111.4161395899843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>94.92839560200201</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>8.661728554219394</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>67.52345255978852</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>211.7652975579132</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>134.6711151870884</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>206.8218058926132</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176766</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="F2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="N2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208451</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427115</v>
+        <v>178997.5061427113</v>
       </c>
       <c r="D3" t="n">
         <v>301519.8707731214</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245453</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.303402303979965e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,22 +26392,22 @@
         <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267271</v>
+        <v>41617.52445267273</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019559</v>
+        <v>73739.30240019553</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26429,10 +26429,10 @@
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26441,22 +26441,22 @@
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>13606.80811184279</v>
       </c>
-      <c r="L4" t="n">
-        <v>13606.80811184278</v>
-      </c>
       <c r="M4" t="n">
+        <v>13606.80811184283</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13606.80811184281</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161355</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029173</v>
+        <v>69851.97930029174</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125297.8257454958</v>
+        <v>-125297.8257454963</v>
       </c>
       <c r="C6" t="n">
-        <v>322078.1011939762</v>
+        <v>322078.1011939763</v>
       </c>
       <c r="D6" t="n">
-        <v>260902.8517067723</v>
+        <v>260902.8517067722</v>
       </c>
       <c r="E6" t="n">
-        <v>164753.1551374606</v>
+        <v>164405.7758831031</v>
       </c>
       <c r="F6" t="n">
-        <v>672238.5967620061</v>
+        <v>671891.2175076492</v>
       </c>
       <c r="G6" t="n">
-        <v>672238.5967620055</v>
+        <v>671891.217507649</v>
       </c>
       <c r="H6" t="n">
-        <v>672238.5967620062</v>
+        <v>671891.2175076489</v>
       </c>
       <c r="I6" t="n">
-        <v>672238.5967620059</v>
+        <v>671891.217507649</v>
       </c>
       <c r="J6" t="n">
-        <v>623173.6520334615</v>
+        <v>622826.2727791043</v>
       </c>
       <c r="K6" t="n">
-        <v>630621.0723093334</v>
+        <v>630273.6930549763</v>
       </c>
       <c r="L6" t="n">
-        <v>598499.2943618102</v>
+        <v>598151.9151074535</v>
       </c>
       <c r="M6" t="n">
-        <v>539631.3030330796</v>
+        <v>539283.9237787222</v>
       </c>
       <c r="N6" t="n">
-        <v>672238.5967620061</v>
+        <v>671891.2175076492</v>
       </c>
       <c r="O6" t="n">
-        <v>672238.5967620061</v>
+        <v>671891.2175076492</v>
       </c>
       <c r="P6" t="n">
-        <v>672238.5967620059</v>
+        <v>671891.2175076491</v>
       </c>
     </row>
   </sheetData>
@@ -26709,19 +26709,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
         <v>687.6696919955699</v>
@@ -26746,10 +26746,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>349.229934453755</v>
+        <v>349.2299344537552</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826657</v>
+        <v>139.1997510826654</v>
       </c>
       <c r="D3" t="n">
         <v>246.3952001219694</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224134</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
         <v>161.7043472874354</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462837</v>
+        <v>291.3548976462836</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874354</v>
+        <v>161.7043472874356</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462837</v>
+        <v>291.3548976462835</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>161.7043472874354</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462837</v>
+        <v>291.3548976462836</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>209.4843834163581</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059421</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>362.8881840830644</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399026</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368145</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988706</v>
+        <v>25.91829388988694</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27469,10 +27469,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714242</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27514,19 +27514,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377109</v>
       </c>
       <c r="V3" t="n">
-        <v>65.04506392829316</v>
+        <v>45.27499998310543</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459988</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>73.83411082709597</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098464</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>137.0252638525021</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553089</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845843</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917639</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713056</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>219.7874757584241</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271743</v>
+        <v>38.18406822271731</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577507</v>
+        <v>31.05906618577495</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>5.453107166927907</v>
+        <v>114.4141524853433</v>
       </c>
       <c r="E5" t="n">
-        <v>32.70043561850673</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>108.9610453184158</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01103426365796167</v>
+        <v>0.01103426365779114</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>20.50116622471381</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>9.907198161645596</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
         <v>97.95007950277717</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419598</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,22 +27748,22 @@
         <v>144.2088206736375</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
         <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>69.0332717497142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>83.03519249452386</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2019108882319</v>
+        <v>47.68405892029672</v>
       </c>
       <c r="I7" t="n">
         <v>118.1584857285477</v>
@@ -27830,19 +27830,19 @@
         <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>211.7390607919267</v>
+        <v>173.0313165627901</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>105.9621947697339</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28061,10 +28061,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>188.8030515976434</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29985,19 +29985,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.607718096583367e-12</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="39">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31126,43 +31126,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>530.5785304507799</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663312</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.1165249313382</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>308.1572428165614</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>640.2652944187043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.45844197068205</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880151</v>
+        <v>86.19340501175013</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732829</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>138.9995674971061</v>
+        <v>12.90853215669722</v>
       </c>
       <c r="K6" t="n">
         <v>101.0070048954608</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318304</v>
+        <v>259.6727774149732</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155672</v>
+        <v>349.2299344537552</v>
       </c>
       <c r="N6" t="n">
         <v>253.3575809887922</v>
@@ -35032,7 +35032,7 @@
         <v>209.3284516091752</v>
       </c>
       <c r="P6" t="n">
-        <v>216.0350869788846</v>
+        <v>148.4761873979634</v>
       </c>
       <c r="Q6" t="n">
         <v>48.82896851623386</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>246.9454735174611</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>591.2668520422174</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>388.4444965287616</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396449</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.13475084531665</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>165.5609983721169</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>498.1312604966861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3791930.814298393</v>
+        <v>3793691.344601178</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>43.98786165864701</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>21.45987517072708</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>131.9388743763815</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2613113589521</v>
       </c>
     </row>
     <row r="4">
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>27.06656500828701</v>
       </c>
       <c r="H4" t="n">
-        <v>16.40840697931751</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>240.2688891353397</v>
+        <v>240.268889135339</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969024</v>
+        <v>146.0239967969025</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.2299344537552</v>
+        <v>349.2299344537549</v>
       </c>
       <c r="X5" t="n">
-        <v>349.2299344537552</v>
+        <v>349.2299344537549</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156.6259854882217</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>8.321493021612113</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>26.71033973078133</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
-        <v>103.5178519679352</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>110.9119818676761</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024057287</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>75.49088380154204</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>233.8447291789213</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>31.94564439956854</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>155.4906044404805</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>40.62253010341785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569544</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722602</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310325</v>
       </c>
       <c r="H37" t="n">
-        <v>1.799772605716168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.82285422078</v>
+        <v>170.3628934706927</v>
       </c>
       <c r="C2" t="n">
-        <v>388.82285422078</v>
+        <v>170.3628934706927</v>
       </c>
       <c r="D2" t="n">
-        <v>388.82285422078</v>
+        <v>170.3628934706927</v>
       </c>
       <c r="E2" t="n">
-        <v>388.82285422078</v>
+        <v>170.3628934706927</v>
       </c>
       <c r="F2" t="n">
-        <v>344.3906707271972</v>
+        <v>163.4173927214893</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513809</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
@@ -4348,34 +4348,34 @@
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201466</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372647</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="T2" t="n">
-        <v>388.82285422078</v>
+        <v>549.2024635036623</v>
       </c>
       <c r="U2" t="n">
-        <v>388.82285422078</v>
+        <v>359.7826784871775</v>
       </c>
       <c r="V2" t="n">
-        <v>388.82285422078</v>
+        <v>359.7826784871775</v>
       </c>
       <c r="W2" t="n">
-        <v>388.82285422078</v>
+        <v>359.7826784871775</v>
       </c>
       <c r="X2" t="n">
-        <v>388.82285422078</v>
+        <v>359.7826784871775</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.82285422078</v>
+        <v>170.3628934706927</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>210.8081319721848</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>210.8081319721848</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>210.8081319721848</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>210.8081319721848</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140242</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017059</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843274</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843274</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843274</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="U3" t="n">
-        <v>533.4995072678428</v>
+        <v>533.499507267843</v>
       </c>
       <c r="V3" t="n">
-        <v>344.0797222513581</v>
+        <v>533.499507267843</v>
       </c>
       <c r="W3" t="n">
-        <v>344.0797222513581</v>
+        <v>344.0797222513582</v>
       </c>
       <c r="X3" t="n">
-        <v>210.8081319721848</v>
+        <v>154.6599372348734</v>
       </c>
       <c r="Y3" t="n">
-        <v>210.8081319721848</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.466142935173</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="C4" t="n">
-        <v>178.466142935173</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="D4" t="n">
-        <v>178.466142935173</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="E4" t="n">
-        <v>178.466142935173</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="F4" t="n">
-        <v>31.57619543726267</v>
+        <v>220.9959804537475</v>
       </c>
       <c r="G4" t="n">
-        <v>31.57619543726267</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349382</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295949</v>
+        <v>285.9838492295951</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242515</v>
+        <v>471.6341805242519</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608016</v>
+        <v>634.372383960802</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846271</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846271</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="S4" t="n">
-        <v>557.3057129681424</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3057129681424</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681424</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="V4" t="n">
-        <v>557.3057129681424</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="W4" t="n">
-        <v>557.3057129681424</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="X4" t="n">
-        <v>367.8859279516577</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="Y4" t="n">
-        <v>178.466142935173</v>
+        <v>367.8859279516578</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.2446282086561</v>
+        <v>290.2446282086554</v>
       </c>
       <c r="C5" t="n">
-        <v>290.2446282086561</v>
+        <v>290.2446282086554</v>
       </c>
       <c r="D5" t="n">
-        <v>47.54878059720187</v>
+        <v>47.54878059720184</v>
       </c>
       <c r="E5" t="n">
-        <v>47.54878059720187</v>
+        <v>47.54878059720184</v>
       </c>
       <c r="F5" t="n">
-        <v>40.6032798479984</v>
+        <v>40.60327984799837</v>
       </c>
       <c r="G5" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630039</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630039</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630039</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874591</v>
+        <v>80.99020340874563</v>
       </c>
       <c r="K5" t="n">
-        <v>211.239630562053</v>
+        <v>211.2396305620526</v>
       </c>
       <c r="L5" t="n">
-        <v>409.727324245866</v>
+        <v>409.7273242458656</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973823</v>
+        <v>662.2525653973818</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365748</v>
+        <v>923.4777373365738</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477533</v>
+        <v>1156.809998477532</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169734</v>
+        <v>1321.452684169733</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815021</v>
+        <v>1396.91973781502</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815021</v>
+        <v>1396.91973781502</v>
       </c>
       <c r="S5" t="n">
-        <v>1249.420751151483</v>
+        <v>1249.420751151482</v>
       </c>
       <c r="T5" t="n">
-        <v>1249.420751151483</v>
+        <v>1249.420751151482</v>
       </c>
       <c r="U5" t="n">
-        <v>995.7596473071516</v>
+        <v>995.7596473071502</v>
       </c>
       <c r="V5" t="n">
-        <v>995.7596473071516</v>
+        <v>995.7596473071502</v>
       </c>
       <c r="W5" t="n">
-        <v>643.0021377579038</v>
+        <v>643.0021377579028</v>
       </c>
       <c r="X5" t="n">
-        <v>290.2446282086561</v>
+        <v>290.2446282086554</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.2446282086561</v>
+        <v>290.2446282086554</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>333.710407734871</v>
+        <v>482.6448173961222</v>
       </c>
       <c r="C6" t="n">
-        <v>333.710407734871</v>
+        <v>482.6448173961222</v>
       </c>
       <c r="D6" t="n">
         <v>333.710407734871</v>
       </c>
       <c r="E6" t="n">
-        <v>174.4729527294155</v>
+        <v>174.4729527294154</v>
       </c>
       <c r="F6" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630039</v>
       </c>
       <c r="G6" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630039</v>
       </c>
       <c r="H6" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630039</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630039</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143067</v>
+        <v>40.71784159143058</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379369</v>
+        <v>140.7147764379367</v>
       </c>
       <c r="L6" t="n">
-        <v>397.7908260787603</v>
+        <v>321.4955368824488</v>
       </c>
       <c r="M6" t="n">
-        <v>743.528461187978</v>
+        <v>648.6148312576637</v>
       </c>
       <c r="N6" t="n">
-        <v>994.3524663668823</v>
+        <v>994.352466366881</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459966</v>
+        <v>1201.587633459964</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983949</v>
+        <v>1348.579058983948</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815021</v>
+        <v>1396.91973781502</v>
       </c>
       <c r="R6" t="n">
-        <v>1396.919737815021</v>
+        <v>1388.514189308341</v>
       </c>
       <c r="S6" t="n">
-        <v>1396.919737815021</v>
+        <v>1361.534048166137</v>
       </c>
       <c r="T6" t="n">
-        <v>1396.919737815021</v>
+        <v>1361.534048166137</v>
       </c>
       <c r="U6" t="n">
-        <v>1396.919737815021</v>
+        <v>1133.408724598352</v>
       </c>
       <c r="V6" t="n">
-        <v>1161.767629583278</v>
+        <v>898.256616366609</v>
       </c>
       <c r="W6" t="n">
-        <v>907.5302728550766</v>
+        <v>898.256616366609</v>
       </c>
       <c r="X6" t="n">
-        <v>699.6787726495438</v>
+        <v>690.4051161610762</v>
       </c>
       <c r="Y6" t="n">
-        <v>491.9184738845899</v>
+        <v>482.6448173961222</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>746.3577450131447</v>
+        <v>928.0062098433842</v>
       </c>
       <c r="C7" t="n">
-        <v>577.4215620852378</v>
+        <v>759.0700269154773</v>
       </c>
       <c r="D7" t="n">
-        <v>427.3049226729021</v>
+        <v>608.9533875031416</v>
       </c>
       <c r="E7" t="n">
-        <v>279.391829090509</v>
+        <v>461.0402939207485</v>
       </c>
       <c r="F7" t="n">
-        <v>132.5018815925986</v>
+        <v>314.1503464228381</v>
       </c>
       <c r="G7" t="n">
-        <v>132.5018815925986</v>
+        <v>145.71507444492</v>
       </c>
       <c r="H7" t="n">
-        <v>27.93839475630042</v>
+        <v>145.71507444492</v>
       </c>
       <c r="I7" t="n">
-        <v>27.93839475630042</v>
+        <v>33.68276952807543</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630042</v>
+        <v>27.93839475630039</v>
       </c>
       <c r="K7" t="n">
-        <v>148.523310587469</v>
+        <v>148.5233105874689</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208639</v>
+        <v>358.3569215208637</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014273</v>
+        <v>589.9861665014271</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750246</v>
+        <v>821.5424021750243</v>
       </c>
       <c r="O7" t="n">
         <v>1019.405768767885</v>
@@ -4761,16 +4761,16 @@
         <v>1182.690698049271</v>
       </c>
       <c r="V7" t="n">
-        <v>928.0062098433845</v>
+        <v>928.0062098433842</v>
       </c>
       <c r="W7" t="n">
-        <v>928.0062098433845</v>
+        <v>928.0062098433842</v>
       </c>
       <c r="X7" t="n">
-        <v>928.0062098433845</v>
+        <v>928.0062098433842</v>
       </c>
       <c r="Y7" t="n">
-        <v>928.0062098433845</v>
+        <v>928.0062098433842</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099142</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C8" t="n">
-        <v>1043.17188115873</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D8" t="n">
-        <v>684.90618255198</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>299.1179299537358</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163264</v>
+        <v>2437.640120926625</v>
       </c>
     </row>
     <row r="9">
@@ -4865,40 +4865,40 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>482.9033490193026</v>
+        <v>482.9033490193025</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507743</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M9" t="n">
         <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.15405360694</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783102</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P9" t="n">
         <v>2422.685363568936</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.9577966591559</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>602.021613731249</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>451.9049743189132</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1604.177792398166</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1315.059454902003</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1060.374966696116</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="W10" t="n">
-        <v>770.9577966591559</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="X10" t="n">
-        <v>770.9577966591559</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="Y10" t="n">
-        <v>770.9577966591559</v>
+        <v>1087.683159487371</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,13 +5062,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,13 +5743,13 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5995,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6226,25 +6226,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6837,25 +6837,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6916,16 +6916,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000582</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7171,52 +7171,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7414,7 +7414,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,16 +8139,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
-        <v>74.03418926528938</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>82.97369176944346</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898952</v>
+        <v>41.92993463898958</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>77.06594868314272</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>116.583986238188</v>
+        <v>97.7775814563671</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>95.87235346496283</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>245.5619442858263</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823101</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>638347.4380250133</v>
+        <v>638347.4380250134</v>
       </c>
     </row>
     <row r="14">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.725617676</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.934697756</v>
       </c>
       <c r="O2" t="n">
         <v>786967.934697756</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427113</v>
+        <v>178997.5061427109</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731214</v>
+        <v>301519.8707731215</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267273</v>
+        <v>41617.52445267261</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019553</v>
+        <v>73739.30240019564</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307132</v>
+        <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
         <v>229588.138980697</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979382</v>
+        <v>145155.2306979383</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26441,19 +26441,19 @@
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184283</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029174</v>
+        <v>69851.97930029171</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-125297.8257454963</v>
       </c>
       <c r="C6" t="n">
-        <v>322078.1011939763</v>
+        <v>322078.1011939765</v>
       </c>
       <c r="D6" t="n">
-        <v>260902.8517067722</v>
+        <v>260902.8517067717</v>
       </c>
       <c r="E6" t="n">
-        <v>164405.7758831031</v>
+        <v>164718.4172120243</v>
       </c>
       <c r="F6" t="n">
-        <v>671891.2175076492</v>
+        <v>672203.8588365703</v>
       </c>
       <c r="G6" t="n">
-        <v>671891.217507649</v>
+        <v>672203.8588365704</v>
       </c>
       <c r="H6" t="n">
-        <v>671891.2175076489</v>
+        <v>672203.8588365704</v>
       </c>
       <c r="I6" t="n">
-        <v>671891.217507649</v>
+        <v>672203.8588365704</v>
       </c>
       <c r="J6" t="n">
-        <v>622826.2727791043</v>
+        <v>623138.9141080258</v>
       </c>
       <c r="K6" t="n">
-        <v>630273.6930549763</v>
+        <v>630586.3343838977</v>
       </c>
       <c r="L6" t="n">
-        <v>598151.9151074535</v>
+        <v>598464.5564363747</v>
       </c>
       <c r="M6" t="n">
-        <v>539283.9237787222</v>
+        <v>539596.5651076436</v>
       </c>
       <c r="N6" t="n">
-        <v>671891.2175076492</v>
+        <v>672203.8588365705</v>
       </c>
       <c r="O6" t="n">
-        <v>671891.2175076492</v>
+        <v>672203.8588365705</v>
       </c>
       <c r="P6" t="n">
-        <v>671891.2175076491</v>
+        <v>672203.8588365704</v>
       </c>
     </row>
   </sheetData>
@@ -26709,19 +26709,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955699</v>
+        <v>687.6696919955697</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537552</v>
+        <v>349.2299344537549</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826654</v>
+        <v>139.1997510826651</v>
       </c>
       <c r="D3" t="n">
         <v>246.3952001219694</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874354</v>
+        <v>161.7043472874349</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462836</v>
+        <v>291.3548976462839</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874356</v>
+        <v>161.7043472874352</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462835</v>
+        <v>291.3548976462839</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874354</v>
+        <v>161.7043472874349</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462836</v>
+        <v>291.3548976462839</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>362.8881840830644</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>391.637958059331</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988694</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -27469,7 +27469,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,19 +27514,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377109</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310543</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>73.83411082709597</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>67.42138441835226</v>
       </c>
     </row>
     <row r="4">
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>139.9353701944272</v>
       </c>
       <c r="H4" t="n">
-        <v>137.0252638525021</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917639</v>
+        <v>19.25466862917628</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271731</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577495</v>
+        <v>31.05906618577484</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>114.4141524853433</v>
+        <v>114.4141524853439</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01103426365779114</v>
+        <v>0.0110342636581322</v>
       </c>
       <c r="X5" t="n">
-        <v>20.50116622471381</v>
+        <v>20.50116622471415</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.907198161645596</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>97.95007950277717</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419598</v>
+        <v>38.47015094419599</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612085</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>117.4984809428562</v>
       </c>
       <c r="T6" t="n">
         <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>47.68405892029672</v>
+        <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285477</v>
+        <v>7.246503860871556</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057259</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>307.2429578619385</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>173.0313165627901</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>188.8030515976434</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>96.64703888334753</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29985,19 +29985,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.607718096583367e-12</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31077,10 +31077,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31123,7 +31123,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31132,7 +31132,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31141,7 +31141,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31150,19 +31150,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354048</v>
+        <v>2.764501274354047</v>
       </c>
       <c r="H5" t="n">
-        <v>28.3119486759784</v>
+        <v>28.31194867597839</v>
       </c>
       <c r="I5" t="n">
         <v>106.5784353795345</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342071</v>
+        <v>234.633590034207</v>
       </c>
       <c r="K5" t="n">
-        <v>351.654928977614</v>
+        <v>351.6549289776138</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526268</v>
+        <v>436.2590348526266</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904206</v>
+        <v>485.4222343904204</v>
       </c>
       <c r="N5" t="n">
-        <v>493.276873636179</v>
+        <v>493.2768736361789</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893209</v>
+        <v>465.7873640893208</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787053</v>
+        <v>397.5387388787052</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909009</v>
+        <v>298.5350369909008</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751426</v>
+        <v>173.6556031751425</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934293</v>
+        <v>62.9960727893429</v>
       </c>
       <c r="T5" t="n">
         <v>12.10160432848485</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483238</v>
+        <v>0.2211601019483237</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,43 +31363,43 @@
         <v>14.28536473371929</v>
       </c>
       <c r="I6" t="n">
-        <v>50.9264819072191</v>
+        <v>50.92648190721908</v>
       </c>
       <c r="J6" t="n">
         <v>139.7461588233639</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698198</v>
+        <v>238.8484438698197</v>
       </c>
       <c r="L6" t="n">
         <v>321.1612085117046</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375855</v>
+        <v>374.7799821375854</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721255</v>
+        <v>384.6992930721254</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536196</v>
+        <v>351.9246960536195</v>
       </c>
       <c r="P6" t="n">
         <v>282.4505948122936</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022554</v>
+        <v>188.8107426022553</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103105</v>
+        <v>91.83634113103102</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020035</v>
+        <v>27.47435043020034</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603099</v>
+        <v>5.961966480603097</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729767</v>
+        <v>0.09731174886729764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>11.02526161920767</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871059</v>
+        <v>37.29198919871057</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261552</v>
+        <v>87.67224909261549</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098915</v>
+        <v>144.0724371098914</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966484</v>
+        <v>184.3631170966483</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619608</v>
+        <v>194.3850573619607</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698596</v>
+        <v>189.7630151698595</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433955</v>
+        <v>175.2768585433954</v>
       </c>
       <c r="P7" t="n">
         <v>149.9796324968698</v>
@@ -31469,16 +31469,16 @@
         <v>103.838123491331</v>
       </c>
       <c r="R7" t="n">
-        <v>55.7576114198375</v>
+        <v>55.75761141983748</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648372</v>
+        <v>21.61086556648371</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457668</v>
+        <v>5.298438610457666</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0676396418356299</v>
+        <v>0.06763964183562987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>650.2626573149951</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32250,7 +32250,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
         <v>790.8204499236507</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34789,16 +34789,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175013</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>99.08507489005498</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.5876855075208</v>
+        <v>53.58768550752072</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326334</v>
+        <v>131.5650779326333</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826395</v>
+        <v>200.4926198826394</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631478</v>
+        <v>255.0760011631477</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395881</v>
+        <v>263.863810039588</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676342</v>
+        <v>235.689152667634</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234358</v>
+        <v>166.3057431234357</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645141</v>
+        <v>76.22934711645129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669722</v>
+        <v>12.90853215669716</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954608</v>
+        <v>101.0070048954607</v>
       </c>
       <c r="L6" t="n">
-        <v>259.6727774149732</v>
+        <v>182.6068287318304</v>
       </c>
       <c r="M6" t="n">
-        <v>349.2299344537552</v>
+        <v>330.4235296719342</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887922</v>
+        <v>349.2299344537549</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091752</v>
+        <v>209.3284516091751</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979634</v>
+        <v>148.4761873979633</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623386</v>
+        <v>48.8289685162338</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35102,19 +35102,19 @@
         <v>211.9531423569645</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238014</v>
+        <v>233.9689343238013</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490882</v>
+        <v>233.8951875490881</v>
       </c>
       <c r="O7" t="n">
         <v>199.8619864574351</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617633</v>
+        <v>147.2581917617632</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963666</v>
+        <v>17.67608023963663</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>246.9454735174611</v>
+        <v>246.945473517461</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>508.1286233929767</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
